--- a/tests/order-variable-settings/missing_header_row.xlsx
+++ b/tests/order-variable-settings/missing_header_row.xlsx
@@ -65,10 +65,10 @@
     <t>{order_id}</t>
   </si>
   <si>
-    <t>Platform Name</t>
-  </si>
-  <si>
-    <t>Header Roow</t>
+    <t>PlatformName</t>
+  </si>
+  <si>
+    <t>HeaderRoow</t>
   </si>
   <si>
     <t>order_id</t>
@@ -268,7 +268,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -279,12 +279,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -351,7 +345,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="12">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -382,12 +376,6 @@
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -701,7 +689,7 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" style="9" width="15.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="13" width="12.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="11" width="12.576428571428572" customWidth="1" bestFit="1"/>
     <col min="3" max="3" style="7" width="17.576428571428572" customWidth="1" bestFit="1"/>
     <col min="4" max="4" style="7" width="23.719285714285714" customWidth="1" bestFit="1"/>
     <col min="5" max="5" style="7" width="12.576428571428572" customWidth="1" bestFit="1"/>
@@ -932,44 +920,44 @@
         <v>67</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="B6" s="11">
+      <c r="B6" s="10">
         <v>1</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="E6" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F6" s="12" t="s">
+      <c r="F6" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="G6" s="12" t="s">
+      <c r="G6" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="H6" s="12" t="s">
+      <c r="H6" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="I6" s="12" t="s">
+      <c r="I6" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12" t="s">
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="M6" s="12"/>
-      <c r="N6" s="12" t="s">
+      <c r="M6" s="4"/>
+      <c r="N6" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="O6" s="12" t="s">
+      <c r="O6" s="4" t="s">
         <v>71</v>
       </c>
     </row>
